--- a/src/main/resources/test-data.xlsx
+++ b/src/main/resources/test-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingale.r/webtools-project/Milestone2/neuconnect-app/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7B9CEA3B-CF3A-EA4A-B9A3-1BB59C1B228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F09AC-6643-DF46-9231-E53E704B17BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test-data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>fname</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Tambe</t>
   </si>
   <si>
-    <t>tambe.ani@northeastern.edu</t>
-  </si>
-  <si>
     <t>STUDENT</t>
   </si>
   <si>
@@ -82,12 +79,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>emma.johnson</t>
-  </si>
-  <si>
-    <t>pa$$w0rd</t>
-  </si>
-  <si>
     <t>Noah</t>
   </si>
   <si>
@@ -254,12 +245,33 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>AUTHORITY</t>
+  </si>
+  <si>
+    <t>atambe</t>
+  </si>
+  <si>
+    <t>r.ing</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>TRAINER</t>
+  </si>
+  <si>
+    <t>TUTOR</t>
+  </si>
+  <si>
+    <t>COUNSELLOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1095,11 +1107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1181,10 +1193,10 @@
         <v>35369</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>2101113</v>
@@ -1193,27 +1205,27 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>34770</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>100001</v>
@@ -1222,15 +1234,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1239,10 +1251,10 @@
         <v>34540</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>100002</v>
@@ -1251,27 +1263,27 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>35377</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>100003</v>
@@ -1280,15 +1292,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1297,10 +1309,10 @@
         <v>35690</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>100004</v>
@@ -1309,27 +1321,27 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>35936</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>100005</v>
@@ -1338,15 +1350,15 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1355,10 +1367,10 @@
         <v>36194</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>100006</v>
@@ -1367,27 +1379,27 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>34333</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>100007</v>
@@ -1396,15 +1408,15 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1413,10 +1425,10 @@
         <v>35291</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2">
         <v>100008</v>
@@ -1425,27 +1437,27 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>34429</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2">
         <v>100009</v>
@@ -1454,15 +1466,15 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1471,10 +1483,10 @@
         <v>35731</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2">
         <v>100010</v>
@@ -1483,27 +1495,27 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>35965</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2">
         <v>100011</v>
@@ -1512,15 +1524,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1529,10 +1541,10 @@
         <v>34722</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2">
         <v>100012</v>
@@ -1541,27 +1553,27 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>34653</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2">
         <v>100013</v>
@@ -1570,15 +1582,15 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1587,10 +1599,10 @@
         <v>35253</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2">
         <v>100014</v>
@@ -1599,27 +1611,27 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>36279</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
         <v>100015</v>
@@ -1628,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data.xlsx
+++ b/src/main/resources/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingale.r/webtools-project/Milestone2/neuconnect-app/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F09AC-6643-DF46-9231-E53E704B17BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1CFAE-A546-254E-9E41-CBAD3963DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>fname</t>
   </si>
@@ -266,13 +266,67 @@
   </si>
   <si>
     <t>COUNSELLOR</t>
+  </si>
+  <si>
+    <t>aboutMe</t>
+  </si>
+  <si>
+    <t>As the administrator, I oversee and manage the system.</t>
+  </si>
+  <si>
+    <t>Experienced and knowledgeable professional in the field.</t>
+  </si>
+  <si>
+    <t>Dedicated to empowering individuals through education and training.</t>
+  </si>
+  <si>
+    <t>Passionate about helping students reach their full potential.</t>
+  </si>
+  <si>
+    <t>Providing guidance and support to individuals facing challenges.</t>
+  </si>
+  <si>
+    <t>Exploring new horizons in the world of learning.</t>
+  </si>
+  <si>
+    <t>Striving to make a positive impact through education.</t>
+  </si>
+  <si>
+    <t>Committed to fostering a supportive learning environment.</t>
+  </si>
+  <si>
+    <t>Aiming to inspire and motivate students to excel.</t>
+  </si>
+  <si>
+    <t>Believes in the power of education to transform lives.</t>
+  </si>
+  <si>
+    <t>Passionate about creating meaningful learning experiences.</t>
+  </si>
+  <si>
+    <t>Dedicated to lifelong learning and growth.</t>
+  </si>
+  <si>
+    <t>Committed to helping students succeed in their academic journey.</t>
+  </si>
+  <si>
+    <t>Driven by the desire to make a difference in students' lives.</t>
+  </si>
+  <si>
+    <t>Committed to promoting a culture of excellence in education.</t>
+  </si>
+  <si>
+    <t>Passionate about igniting curiosity and fostering creativity.</t>
+  </si>
+  <si>
+    <t>Striving to create a positive and inclusive learning environment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,6 +460,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -749,10 +809,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1108,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,9 +1180,10 @@
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="69.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,8 +1211,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1178,8 +1243,11 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1207,8 +1275,11 @@
       <c r="I3" t="s">
         <v>75</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1236,8 +1307,11 @@
       <c r="I4" t="s">
         <v>79</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1265,8 +1339,11 @@
       <c r="I5" t="s">
         <v>80</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1294,8 +1371,11 @@
       <c r="I6" t="s">
         <v>81</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1323,8 +1403,11 @@
       <c r="I7" t="s">
         <v>15</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1352,8 +1435,11 @@
       <c r="I8" t="s">
         <v>15</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1381,8 +1467,11 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1410,8 +1499,11 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1439,8 +1531,11 @@
       <c r="I11" t="s">
         <v>15</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1468,8 +1563,11 @@
       <c r="I12" t="s">
         <v>15</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1497,8 +1595,11 @@
       <c r="I13" t="s">
         <v>15</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1526,8 +1627,11 @@
       <c r="I14" t="s">
         <v>15</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1555,8 +1659,11 @@
       <c r="I15" t="s">
         <v>15</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1584,8 +1691,11 @@
       <c r="I16" t="s">
         <v>15</v>
       </c>
+      <c r="J16" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1613,8 +1723,11 @@
       <c r="I17" t="s">
         <v>15</v>
       </c>
+      <c r="J17" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1641,6 +1754,9 @@
       </c>
       <c r="I18" t="s">
         <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data.xlsx
+++ b/src/main/resources/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingale.r/webtools-project/Milestone2/neuconnect-app/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1CFAE-A546-254E-9E41-CBAD3963DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1AD19-87C5-7544-A0D2-538CE00E25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,6 @@
     <t>ADMIN</t>
   </si>
   <si>
-    <t>Aniruddha</t>
-  </si>
-  <si>
-    <t>Tambe</t>
-  </si>
-  <si>
     <t>STUDENT</t>
   </si>
   <si>
@@ -320,6 +314,12 @@
   </si>
   <si>
     <t>Striving to create a positive and inclusive learning environment.</t>
+  </si>
+  <si>
+    <t>Ani</t>
+  </si>
+  <si>
+    <t>Tam</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1244,15 +1244,15 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1261,10 +1261,10 @@
         <v>35369</v>
       </c>
       <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>2101113</v>
@@ -1273,30 +1273,30 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>34770</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>100001</v>
@@ -1305,18 +1305,18 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1325,10 +1325,10 @@
         <v>34540</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>100002</v>
@@ -1337,30 +1337,30 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>35377</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>100003</v>
@@ -1369,18 +1369,18 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1389,10 +1389,10 @@
         <v>35690</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>100004</v>
@@ -1401,30 +1401,30 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>35936</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>100005</v>
@@ -1433,18 +1433,18 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1453,10 +1453,10 @@
         <v>36194</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
         <v>100006</v>
@@ -1465,30 +1465,30 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>34333</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>100007</v>
@@ -1497,18 +1497,18 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1517,10 +1517,10 @@
         <v>35291</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2">
         <v>100008</v>
@@ -1529,30 +1529,30 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>34429</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>100009</v>
@@ -1561,18 +1561,18 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1581,10 +1581,10 @@
         <v>35731</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2">
         <v>100010</v>
@@ -1593,30 +1593,30 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>35965</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2">
         <v>100011</v>
@@ -1625,18 +1625,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1645,10 +1645,10 @@
         <v>34722</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2">
         <v>100012</v>
@@ -1657,30 +1657,30 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>34653</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2">
         <v>100013</v>
@@ -1689,18 +1689,18 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1709,10 +1709,10 @@
         <v>35253</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2">
         <v>100014</v>
@@ -1721,30 +1721,30 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>36279</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
         <v>100015</v>
@@ -1753,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data.xlsx
+++ b/src/main/resources/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingale.r/webtools-project/Milestone2/neuconnect-app/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1AD19-87C5-7544-A0D2-538CE00E25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622C451-9EB5-2F42-A7E7-3B76ABEC40A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,10 +316,10 @@
     <t>Striving to create a positive and inclusive learning environment.</t>
   </si>
   <si>
-    <t>Ani</t>
-  </si>
-  <si>
-    <t>Tam</t>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
